--- a/cli/data.xlsx
+++ b/cli/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\certigo\cli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC678D-8EF1-468B-A57F-BE2321F65C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08009877-6073-44F1-AB90-89E708B43EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B44B1F4E-7583-4725-A448-BEDFC93C2B76}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>sample@gmail.com</t>
+    <t>powerupneo@gmail.com</t>
   </si>
 </sst>
 </file>
